--- a/Workers_problem.xlsx
+++ b/Workers_problem.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D7B474E-7168-42B2-94CD-5179168A2187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{186D6964-B7D1-4077-AB90-C2F521F7D8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Workers1" sheetId="1" r:id="rId1"/>
+    <sheet name="Worker2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -54,11 +55,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
   <si>
     <t>Employees Scheduling Problem</t>
   </si>
   <si>
+    <t>[18.0, 10.0, 8.0, 0.0, 13.0, 0.0, 4.0]</t>
+  </si>
+  <si>
     <t>Decision Variable</t>
   </si>
   <si>
@@ -90,13 +94,76 @@
   </si>
   <si>
     <t>Shift start day</t>
+  </si>
+  <si>
+    <t>Advertising Mode</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Revenge</t>
+  </si>
+  <si>
+    <t>Sunday Night Football</t>
+  </si>
+  <si>
+    <t>The Simpsons</t>
+  </si>
+  <si>
+    <t>Sports Center</t>
+  </si>
+  <si>
+    <t>Homeland</t>
+  </si>
+  <si>
+    <t>Rachel Ray</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>The Good Wife</t>
+  </si>
+  <si>
+    <t>Minimum Exposures</t>
+  </si>
+  <si>
+    <t>Male 18-35</t>
+  </si>
+  <si>
+    <t>Male 36-55</t>
+  </si>
+  <si>
+    <t>Male &gt; 55</t>
+  </si>
+  <si>
+    <t>Female 18-35</t>
+  </si>
+  <si>
+    <t>Female 36-55</t>
+  </si>
+  <si>
+    <t>Female &gt; 55</t>
+  </si>
+  <si>
+    <t>Cost Per Ad</t>
+  </si>
+  <si>
+    <t>Obj</t>
+  </si>
+  <si>
+    <t>Number ads purchased</t>
+  </si>
+  <si>
+    <t>Constraints</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +192,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,8 +214,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -148,11 +235,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -162,6 +286,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,6 +799,34 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5793F8E3-BCAF-4451-BFF0-156B4C625304}" name="Table3" displayName="Table3" ref="B5:J12" totalsRowShown="0">
+  <autoFilter ref="B5:J12" xr:uid="{5793F8E3-BCAF-4451-BFF0-156B4C625304}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{5C789BF1-6458-48EC-BB9C-F5CA452E7B5B}" name="Group"/>
+    <tableColumn id="2" xr3:uid="{B5673AC6-D81E-4537-9AB5-AE9B6EA4C0CF}" name="Revenge"/>
+    <tableColumn id="3" xr3:uid="{81DD1FEF-0D71-43BC-BFD2-21C97A496CD4}" name="Sunday Night Football"/>
+    <tableColumn id="4" xr3:uid="{F0704CC5-CE64-4D52-A0D4-18F1532F46E0}" name="The Simpsons"/>
+    <tableColumn id="5" xr3:uid="{B00081CD-E9B7-415D-99C3-9B2FA9FE9EA1}" name="Sports Center"/>
+    <tableColumn id="6" xr3:uid="{79D904BE-3B46-477D-98D0-5A1F02FA7768}" name="Homeland"/>
+    <tableColumn id="7" xr3:uid="{E12201B3-0085-44C1-B5A6-6373BF7A920D}" name="Rachel Ray"/>
+    <tableColumn id="8" xr3:uid="{63EA11BF-E927-4897-A535-74C90373DFA9}" name="CNN"/>
+    <tableColumn id="9" xr3:uid="{9BBCF7BC-6139-4859-B729-0545E546FBA9}" name="The Good Wife"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -967,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:J25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -987,9 +1146,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:14">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" ref="D3:J3">TRANSPOSE(B7:B13)</f>
@@ -1016,10 +1180,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="D4" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>8</v>
@@ -1043,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" ref="D7:J7">TRANSPOSE(B7:B13)</f>
@@ -1073,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8:J8">TRANSPOSE(D19:D25)</f>
@@ -1102,10 +1266,10 @@
       </c>
       <c r="L8">
         <f>SUMPRODUCT($D$4:$J$4,D8:J8)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>31</v>
@@ -1116,10 +1280,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9:J9">TRANSPOSE(E19:E25)</f>
@@ -1148,7 +1312,7 @@
         <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9">
         <v>45</v>
@@ -1159,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
       </c>
       <c r="D10" cm="1">
         <f t="array" ref="D10:J10">TRANSPOSE(F19:F25)</f>
@@ -1191,7 +1355,7 @@
         <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10">
         <v>40</v>
@@ -1202,10 +1366,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
       </c>
       <c r="D11" cm="1">
         <f t="array" ref="D11:J11">TRANSPOSE(G19:G25)</f>
@@ -1234,7 +1398,7 @@
         <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11">
         <v>40</v>
@@ -1245,10 +1409,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
       </c>
       <c r="D12" cm="1">
         <f t="array" ref="D12:J12">TRANSPOSE(H19:H25)</f>
@@ -1277,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="M12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>48</v>
@@ -1288,10 +1452,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
       </c>
       <c r="D13" cm="1">
         <f t="array" ref="D13:J13">TRANSPOSE(I19:I25)</f>
@@ -1317,10 +1481,10 @@
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>30</v>
@@ -1328,7 +1492,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" cm="1">
         <f t="array" ref="D14:J14">TRANSPOSE(J19:J25)</f>
@@ -1357,7 +1521,7 @@
         <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14">
         <v>25</v>
@@ -1368,38 +1532,38 @@
     </row>
     <row r="17" spans="3:10" ht="18.75">
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="3:10">
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="3:10">
       <c r="C19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -1425,7 +1589,7 @@
     </row>
     <row r="20" spans="3:10">
       <c r="C20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -1451,7 +1615,7 @@
     </row>
     <row r="21" spans="3:10">
       <c r="C21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -1477,7 +1641,7 @@
     </row>
     <row r="22" spans="3:10" ht="14.25">
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1503,7 +1667,7 @@
     </row>
     <row r="23" spans="3:10" ht="14.25">
       <c r="C23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -1529,7 +1693,7 @@
     </row>
     <row r="24" spans="3:10" ht="14.25">
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1555,7 +1719,7 @@
     </row>
     <row r="25" spans="3:10" ht="14.25">
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1591,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A59220-F4D9-41DC-A17D-40F9E1951526}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1602,38 +1766,38 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -1659,7 +1823,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -1685,7 +1849,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1711,7 +1875,7 @@
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1737,7 +1901,7 @@
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -1763,7 +1927,7 @@
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1789,28 +1953,466 @@
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00266256-78C3-4721-A0EB-D97C6E4BE15B}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.7</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.2</v>
+      </c>
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.3</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>0.9</v>
+      </c>
+      <c r="H9">
+        <v>0.6</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>1.3</v>
+      </c>
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.4</v>
+      </c>
+      <c r="I11">
+        <v>0.3</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>140</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>80</v>
+      </c>
+      <c r="F12">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="L16">
+        <f>SUMPRODUCT(C12:J12,C16:J16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <f>SUMPRODUCT($C$16:$J$16,C6:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" cm="1">
+        <f t="array" ref="E21:E26">L6:L11</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C26" si="0">SUMPRODUCT($C$16:$J$16,C7:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
